--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R207_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R207_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -419,10 +431,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="J10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -466,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="A12" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="2">
+      <c r="C12" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -512,28 +524,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="2">
+      <c r="I14" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -679,10 +691,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="2" t="s">
+      <c r="J19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -726,28 +738,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="2">
+      <c r="A21" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s" s="2">
+      <c r="C21" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -772,28 +784,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="2">
+      <c r="C23" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="2">
+      <c r="D23" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="2">
+      <c r="I23" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -939,10 +951,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="2" t="s">
+      <c r="J28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -986,28 +998,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="2">
+      <c r="A30" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s" s="2">
+      <c r="C30" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1032,28 +1044,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="2">
+      <c r="C32" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="2">
+      <c r="D32" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="2">
+      <c r="I32" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1315,10 +1327,10 @@
       <c r="I41">
         <f>((C41-C40)^2+(D41- D40)^2)^.5</f>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="2" t="s">
+      <c r="J41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L41" t="n">
@@ -1362,28 +1374,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="2">
+      <c r="A43" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C43" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s" s="2">
+      <c r="C43" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1408,28 +1420,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C45" t="s" s="2">
+      <c r="C45" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D45" t="s" s="2">
+      <c r="D45" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I45" t="s" s="2">
+      <c r="I45" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1633,10 +1645,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="2" t="s">
+      <c r="J52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1680,28 +1692,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="2">
+      <c r="A54" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s" s="2">
+      <c r="C54" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1726,28 +1738,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="2">
+      <c r="C56" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="2">
+      <c r="D56" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="2">
+      <c r="I56" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2096,10 +2108,10 @@
       <c r="I68">
         <f>((C68-C67)^2+(D68- D67)^2)^.5</f>
       </c>
-      <c r="J68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K68" s="2" t="s">
+      <c r="J68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K68" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L68" t="n">
@@ -2143,28 +2155,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="2">
+      <c r="A70" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C70" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s" s="2">
+      <c r="C70" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2189,28 +2201,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C72" t="s" s="2">
+      <c r="C72" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D72" t="s" s="2">
+      <c r="D72" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I72" t="s" s="2">
+      <c r="I72" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2443,10 +2455,10 @@
       <c r="I80">
         <f>((C80-C79)^2+(D80- D79)^2)^.5</f>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K80" s="2" t="s">
+      <c r="J80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L80" t="n">
@@ -2490,28 +2502,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="2">
+      <c r="A82" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C82" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D82" t="s" s="2">
+      <c r="C82" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2536,28 +2548,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C84" t="s" s="2">
+      <c r="C84" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D84" t="s" s="2">
+      <c r="D84" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I84" t="s" s="2">
+      <c r="I84" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2732,10 +2744,10 @@
       <c r="I90">
         <f>((C90-C89)^2+(D90- D89)^2)^.5</f>
       </c>
-      <c r="J90" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K90" s="2" t="s">
+      <c r="J90" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K90" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L90" t="n">
@@ -2779,28 +2791,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="2">
+      <c r="A92" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C92" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D92" t="s" s="2">
+      <c r="C92" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2825,28 +2837,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C94" t="s" s="2">
+      <c r="C94" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D94" t="s" s="2">
+      <c r="D94" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I94" t="s" s="2">
+      <c r="I94" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3050,10 +3062,10 @@
       <c r="I101">
         <f>((C101-C100)^2+(D101- D100)^2)^.5</f>
       </c>
-      <c r="J101" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K101" s="2" t="s">
+      <c r="J101" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K101" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L101" t="n">
@@ -3097,28 +3109,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="2">
+      <c r="A103" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C103" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D103" t="s" s="2">
+      <c r="C103" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3143,28 +3155,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C105" t="s" s="2">
+      <c r="C105" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D105" t="s" s="2">
+      <c r="D105" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I105" t="s" s="2">
+      <c r="I105" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3310,10 +3322,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K110" s="2" t="s">
+      <c r="J110" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K110" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3357,28 +3369,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="2">
+      <c r="A112" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D112" t="s" s="2">
+      <c r="C112" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3403,28 +3415,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="2">
+      <c r="C114" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="2">
+      <c r="D114" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="2">
+      <c r="I114" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3599,10 +3611,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="2" t="s">
+      <c r="J120" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3646,28 +3658,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="2">
+      <c r="A122" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="2">
+      <c r="C122" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3692,28 +3704,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="2">
+      <c r="C124" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="2">
+      <c r="D124" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="2">
+      <c r="I124" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3917,10 +3929,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="2" t="s">
+      <c r="J131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3964,28 +3976,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="2">
+      <c r="A133" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="2">
+      <c r="C133" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4010,28 +4022,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="2">
+      <c r="I135" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4177,10 +4189,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="2" t="s">
+      <c r="J140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4224,28 +4236,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="2">
+      <c r="A142" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s" s="2">
+      <c r="C142" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4270,28 +4282,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="2">
+      <c r="I144" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4524,10 +4536,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="2" t="s">
+      <c r="J152" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4571,28 +4583,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="2">
+      <c r="A154" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s" s="2">
+      <c r="C154" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4617,28 +4629,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="2">
+      <c r="C156" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="2">
+      <c r="D156" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="2">
+      <c r="I156" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4784,10 +4796,10 @@
       <c r="I161">
         <f>((C161-C160)^2+(D161- D160)^2)^.5</f>
       </c>
-      <c r="J161" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K161" s="2" t="s">
+      <c r="J161" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K161" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L161" t="n">
@@ -4831,28 +4843,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s" s="2">
+      <c r="A163" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C163" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D163" t="s" s="2">
+      <c r="C163" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D163" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4877,28 +4889,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C165" t="s" s="2">
+      <c r="C165" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D165" t="s" s="2">
+      <c r="D165" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I165" t="s" s="2">
+      <c r="I165" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5015,10 +5027,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="2" t="s">
+      <c r="J169" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5062,28 +5074,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="2">
+      <c r="A171" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="2">
+      <c r="C171" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5108,28 +5120,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="2">
+      <c r="I173" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5275,10 +5287,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K178" s="2" t="s">
+      <c r="J178" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K178" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5322,28 +5334,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="2">
+      <c r="A180" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D180" t="s" s="2">
+      <c r="C180" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5368,28 +5380,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="2">
+      <c r="C182" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="2">
+      <c r="D182" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="2">
+      <c r="I182" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5506,10 +5518,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K186" s="2" t="s">
+      <c r="J186" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K186" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
@@ -5553,28 +5565,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="2">
+      <c r="A188" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C188" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D188" t="s" s="2">
+      <c r="C188" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5599,28 +5611,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C190" t="s" s="2">
+      <c r="C190" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D190" t="s" s="2">
+      <c r="D190" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I190" t="s" s="2">
+      <c r="I190" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5737,10 +5749,10 @@
       <c r="I194">
         <f>((C194-C193)^2+(D194- D193)^2)^.5</f>
       </c>
-      <c r="J194" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K194" s="2" t="s">
+      <c r="J194" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K194" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L194" t="n">
@@ -5784,28 +5796,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s" s="2">
+      <c r="A196" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C196" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D196" t="s" s="2">
+      <c r="C196" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5830,28 +5842,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C198" t="s" s="2">
+      <c r="C198" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D198" t="s" s="2">
+      <c r="D198" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I198" t="s" s="2">
+      <c r="I198" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5939,10 +5951,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K201" s="2" t="s">
+      <c r="J201" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K201" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
